--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-haul.xlsx
@@ -50,7 +50,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>87 ч. 45 мин. 3 сек.</t>
+    <t>87 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -59,7 +59,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>83 ч. 11 мин. 5 сек.</t>
+    <t>83 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -95,7 +95,7 @@
     <t>siquatera</t>
   </si>
   <si>
-    <t>65 ч. 52 мин. 2 сек.</t>
+    <t>65 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -113,7 +113,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>51 ч. 49 мин. 2 сек.</t>
+    <t>51 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -131,7 +131,7 @@
     <t>sinicynal2000</t>
   </si>
   <si>
-    <t>41 ч. 8 мин. 33 сек.</t>
+    <t>41 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -158,7 +158,7 @@
     <t>Матизик</t>
   </si>
   <si>
-    <t>37 ч. 16 мин. 4 сек.</t>
+    <t>37 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -167,7 +167,7 @@
     <t>Aknx</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 13 сек.</t>
+    <t>34 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -203,7 +203,7 @@
     <t>улитка1</t>
   </si>
   <si>
-    <t>32 ч. 7 мин. 53 сек.</t>
+    <t>32 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -248,7 +248,7 @@
     <t>M0Ng0</t>
   </si>
   <si>
-    <t>31 ч. 5 мин. 11 сек.</t>
+    <t>31 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -284,7 +284,7 @@
     <t>bekatop</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 45 сек.</t>
+    <t>29 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -347,7 +347,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>26 ч. 7 мин. 22 сек.</t>
+    <t>26 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -374,7 +374,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 4 сек.</t>
+    <t>25 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -383,7 +383,7 @@
     <t>Nevermor</t>
   </si>
   <si>
-    <t>23 ч. 7 мин. 38 сек.</t>
+    <t>23 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -410,7 +410,7 @@
     <t>rewz</t>
   </si>
   <si>
-    <t>22 ч. 35 мин. 6 сек.</t>
+    <t>22 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>42</t>
@@ -419,7 +419,7 @@
     <t>cannibalcorpse</t>
   </si>
   <si>
-    <t>22 ч. 17 мин. 1 сек.</t>
+    <t>22 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -428,7 +428,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>22 ч. 7 мин. 5 сек.</t>
+    <t>22 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -437,7 +437,7 @@
     <t>Fris_Chroome</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 55 сек.</t>
+    <t>22 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -491,7 +491,7 @@
     <t>ANYA111</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 21 сек.</t>
+    <t>20 ч. 08 мин. 21 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -500,7 +500,7 @@
     <t>polyanytsya</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -509,7 +509,7 @@
     <t>ждан</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 16 сек.</t>
+    <t>20 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -527,7 +527,7 @@
     <t>Suseika</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 0 сек.</t>
+    <t>18 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -554,7 +554,7 @@
     <t>trivium</t>
   </si>
   <si>
-    <t>18 ч. 36 мин. 6 сек.</t>
+    <t>18 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -590,7 +590,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 4 сек.</t>
+    <t>18 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -599,7 +599,7 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 31 сек.</t>
+    <t>18 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -608,7 +608,7 @@
     <t>Лягушкэ</t>
   </si>
   <si>
-    <t>17 ч. 52 мин. 1 сек.</t>
+    <t>17 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -653,7 +653,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 15 сек.</t>
+    <t>17 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -662,7 +662,7 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 45 сек.</t>
+    <t>17 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>70</t>
@@ -671,7 +671,7 @@
     <t>xfhkb</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 17 сек.</t>
+    <t>17 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -680,7 +680,7 @@
     <t>aGm</t>
   </si>
   <si>
-    <t>16 ч. 58 мин. 1 сек.</t>
+    <t>16 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -707,7 +707,7 @@
     <t>tonyk</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 28 сек.</t>
+    <t>16 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -716,7 +716,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>15 ч. 47 мин. 4 сек.</t>
+    <t>15 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -797,7 +797,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>14 ч. 30 мин. 4 сек.</t>
+    <t>14 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>85</t>
@@ -815,7 +815,7 @@
     <t>lichinko</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 40 сек.</t>
+    <t>14 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -869,7 +869,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 54 сек.</t>
+    <t>13 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -878,7 +878,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 46 сек.</t>
+    <t>13 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -887,7 +887,7 @@
     <t>Lilia_Gadetska</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 15 сек.</t>
+    <t>13 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -896,7 +896,7 @@
     <t>Stob</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 50 сек.</t>
+    <t>13 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -968,7 +968,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>12 ч. 12 мин. 2 сек.</t>
+    <t>12 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -1049,7 +1049,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 5 сек.</t>
+    <t>11 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1076,7 +1076,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>11 ч. 30 мин. 8 сек.</t>
+    <t>11 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1103,7 +1103,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 8 сек.</t>
+    <t>11 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1112,7 +1112,7 @@
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>11 ч. 17 мин. 2 сек.</t>
+    <t>11 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1121,7 +1121,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 49 сек.</t>
+    <t>11 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1130,7 +1130,7 @@
     <t>Leolex</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1148,7 +1148,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>10 ч. 59 мин. 9 сек.</t>
+    <t>10 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1157,7 +1157,7 @@
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 7 сек.</t>
+    <t>10 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1175,7 +1175,7 @@
     <t>milkmark</t>
   </si>
   <si>
-    <t>10 ч. 50 мин. 9 сек.</t>
+    <t>10 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1211,7 +1211,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 6 сек.</t>
+    <t>10 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1310,7 +1310,7 @@
     <t>LokoBoss</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1319,7 +1319,7 @@
     <t>zimeth9</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 16 сек.</t>
+    <t>10 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>143</t>
@@ -1328,7 +1328,7 @@
     <t>mrdamon</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 41 сек.</t>
+    <t>10 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1337,7 +1337,7 @@
     <t>StarBA</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 18 сек.</t>
+    <t>10 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1346,7 +1346,7 @@
     <t>shagrat_07</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 39 сек.</t>
+    <t>10 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1373,7 +1373,7 @@
     <t>Nistu</t>
   </si>
   <si>
-    <t>9 ч. 57 мин. 8 сек.</t>
+    <t>9 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1400,7 +1400,7 @@
     <t>Хазов</t>
   </si>
   <si>
-    <t>9 ч. 55 мин. 7 сек.</t>
+    <t>9 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1481,7 +1481,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 6 сек.</t>
+    <t>9 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1490,7 +1490,7 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>9 ч. 36 мин. 5 сек.</t>
+    <t>9 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>162</t>
@@ -1535,7 +1535,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>9 ч. 15 мин. 6 сек.</t>
+    <t>9 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>167</t>
@@ -1562,7 +1562,7 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 51 сек.</t>
+    <t>9 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1571,7 +1571,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 19 сек.</t>
+    <t>9 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1580,7 +1580,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1616,7 +1616,7 @@
     <t>za555</t>
   </si>
   <si>
-    <t>8 ч. 51 мин. 3 сек.</t>
+    <t>8 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1652,7 +1652,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>8 ч. 36 мин. 3 сек.</t>
+    <t>8 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1751,7 +1751,7 @@
     <t>Минчанка</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>191</t>
@@ -1760,7 +1760,7 @@
     <t>Навьер</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 13 сек.</t>
+    <t>8 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1769,7 +1769,7 @@
     <t>Алька007</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 12 сек.</t>
+    <t>8 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1778,7 +1778,7 @@
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 51 сек.</t>
+    <t>8 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1787,7 +1787,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 41 сек.</t>
+    <t>8 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1796,7 +1796,7 @@
     <t>нуммулит</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 55 сек.</t>
+    <t>8 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1805,7 +1805,7 @@
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 26 сек.</t>
+    <t>8 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>197</t>
@@ -1814,7 +1814,7 @@
     <t>Алексей_победа</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 0 сек.</t>
+    <t>8 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1823,7 +1823,7 @@
     <t>noob_typist</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 50 сек.</t>
+    <t>8 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>199</t>
@@ -1832,7 +1832,7 @@
     <t>мимими</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 21 сек.</t>
+    <t>8 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>200</t>
@@ -1922,7 +1922,7 @@
     <t>Kiberdinka</t>
   </si>
   <si>
-    <t>7 ч. 50 мин. 6 сек.</t>
+    <t>7 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1994,7 +1994,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 4 сек.</t>
+    <t>7 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2093,7 +2093,7 @@
     <t>SofaKo</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>229</t>
@@ -2120,7 +2120,7 @@
     <t>frolix</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 12 сек.</t>
+    <t>7 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>232</t>
@@ -2129,7 +2129,7 @@
     <t>lightmor</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 27 сек.</t>
+    <t>7 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2138,7 +2138,7 @@
     <t>dtsarenok</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 5 сек.</t>
+    <t>7 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2147,7 +2147,7 @@
     <t>psv2014</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 39 сек.</t>
+    <t>7 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>235</t>
@@ -2156,7 +2156,7 @@
     <t>Oleg1</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 9 сек.</t>
+    <t>7 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>236</t>
@@ -2165,7 +2165,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>237</t>
@@ -2174,7 +2174,7 @@
     <t>ira77_77</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 27 сек.</t>
+    <t>7 ч. 00 мин. 27 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2183,7 +2183,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 19 сек.</t>
+    <t>7 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2192,7 +2192,7 @@
     <t>Zasadaa</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 12 сек.</t>
+    <t>7 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>ilyavedler85</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 9 сек.</t>
+    <t>6 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2282,7 +2282,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 5 сек.</t>
+    <t>6 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2291,7 +2291,7 @@
     <t>ohirok</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 3 сек.</t>
+    <t>6 ч. 50 мин. 03 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2300,7 +2300,7 @@
     <t>205i</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 5 сек.</t>
+    <t>6 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2318,7 +2318,7 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 3 сек.</t>
+    <t>6 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2327,7 +2327,7 @@
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 44 мин. 9 сек.</t>
+    <t>6 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2399,7 +2399,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 28 мин. 7 сек.</t>
+    <t>6 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>263</t>
@@ -2471,7 +2471,7 @@
     <t>vremyada</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 9 сек.</t>
+    <t>6 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>271</t>
@@ -2543,7 +2543,7 @@
     <t>Gadetska_Yulia</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2561,7 +2561,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 1 сек.</t>
+    <t>6 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2570,7 +2570,7 @@
     <t>Елена29</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 55 сек.</t>
+    <t>6 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2579,7 +2579,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 42 сек.</t>
+    <t>6 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2588,7 +2588,7 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 38 сек.</t>
+    <t>6 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2597,7 +2597,7 @@
     <t>Rigger</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 10 сек.</t>
+    <t>6 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2606,7 +2606,7 @@
     <t>orlova-na1949</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 54 сек.</t>
+    <t>6 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>286</t>
@@ -2615,7 +2615,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 12 сек.</t>
+    <t>6 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>287</t>
@@ -2678,7 +2678,7 @@
     <t>clair</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 6 сек.</t>
+    <t>5 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2687,7 +2687,7 @@
     <t>12061987</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 4 сек.</t>
+    <t>5 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>295</t>
@@ -2942,7 +2942,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2996,7 +2996,7 @@
     <t>disbios</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 8 сек.</t>
+    <t>5 ч. 31 мин. 08 сек.</t>
   </si>
   <si>
     <t>330</t>
@@ -3005,7 +3005,7 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 7 сек.</t>
+    <t>5 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>331</t>
@@ -3023,7 +3023,7 @@
     <t>NaCl</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>333</t>
@@ -3041,7 +3041,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>335</t>
@@ -3086,7 +3086,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 7 сек.</t>
+    <t>5 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>340</t>
@@ -3122,7 +3122,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 1 сек.</t>
+    <t>5 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>344</t>
@@ -3203,7 +3203,7 @@
     <t>metadenisik</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3257,7 +3257,7 @@
     <t>Щелкунчик</t>
   </si>
   <si>
-    <t>5 ч. 14 мин. 5 сек.</t>
+    <t>5 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3302,7 +3302,7 @@
     <t>Elinochka</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 2 сек.</t>
+    <t>5 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>364</t>
@@ -3329,7 +3329,7 @@
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 28 сек.</t>
+    <t>5 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3338,7 +3338,7 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 49 сек.</t>
+    <t>5 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>368</t>
@@ -3347,7 +3347,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>369</t>
@@ -3356,7 +3356,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 50 сек.</t>
+    <t>5 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>370</t>
@@ -3365,7 +3365,7 @@
     <t>sergundo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 19 сек.</t>
+    <t>5 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3374,7 +3374,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 40 сек.</t>
+    <t>5 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>372</t>
@@ -3383,7 +3383,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 49 сек.</t>
+    <t>5 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3392,7 +3392,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 41 сек.</t>
+    <t>5 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>374</t>
@@ -3401,7 +3401,7 @@
     <t>Tatoshka11</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 39 сек.</t>
+    <t>5 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3485,7 +3485,7 @@
     <t>ROMACHKA</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 7 сек.</t>
+    <t>4 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>385</t>
@@ -3494,7 +3494,7 @@
     <t>CaypoH</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 1 сек.</t>
+    <t>4 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>386</t>
@@ -3557,7 +3557,7 @@
     <t>СуперСпринт</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 4 сек.</t>
+    <t>4 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3566,7 +3566,7 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 8 сек.</t>
+    <t>4 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3593,7 +3593,7 @@
     <t>avaloni</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -3683,7 +3683,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 0 сек.</t>
+    <t>4 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>407</t>
@@ -3713,7 +3713,7 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 9 сек.</t>
+    <t>4 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>411</t>
@@ -3722,7 +3722,7 @@
     <t>hotdude</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 3 сек.</t>
+    <t>4 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3830,7 +3830,7 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 9 сек.</t>
+    <t>4 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>424</t>
@@ -3848,7 +3848,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 5 сек.</t>
+    <t>4 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>426</t>
@@ -3920,7 +3920,7 @@
     <t>Петр_Шестаков</t>
   </si>
   <si>
-    <t>4 ч. 32 мин. 7 сек.</t>
+    <t>4 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>434</t>
@@ -3947,7 +3947,7 @@
     <t>ORV88</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 0 сек.</t>
+    <t>4 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>437</t>
@@ -4010,7 +4010,7 @@
     <t>Pablo_Ruis</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4118,7 +4118,7 @@
     <t>Katastrofffa</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 2 сек.</t>
+    <t>4 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -4154,7 +4154,7 @@
     <t>Iriska999</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 4 сек.</t>
+    <t>4 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>460</t>
@@ -4190,7 +4190,7 @@
     <t>natasha272004</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>464</t>
@@ -4235,7 +4235,7 @@
     <t>ozeki</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 8 сек.</t>
+    <t>4 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>469</t>
@@ -4244,7 +4244,7 @@
     <t>ArrowMiara</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 5 сек.</t>
+    <t>4 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4325,7 +4325,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 8 сек.</t>
+    <t>4 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -4361,7 +4361,7 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 52 сек.</t>
+    <t>4 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4370,7 +4370,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 41 сек.</t>
+    <t>4 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4379,7 +4379,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 33 сек.</t>
+    <t>4 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4388,7 +4388,7 @@
     <t>owiden</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 1 сек.</t>
+    <t>4 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4397,7 +4397,7 @@
     <t>master_20</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 47 сек.</t>
+    <t>4 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>487</t>
@@ -4406,7 +4406,7 @@
     <t>северодвинск66</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 42 сек.</t>
+    <t>4 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>488</t>
@@ -4415,7 +4415,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 29 сек.</t>
+    <t>4 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4424,7 +4424,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 6 сек.</t>
+    <t>4 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>490</t>
@@ -4433,7 +4433,7 @@
     <t>Арчи87</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 53 сек.</t>
+    <t>4 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -4442,7 +4442,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 43 сек.</t>
+    <t>4 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>492</t>
@@ -4451,7 +4451,7 @@
     <t>Михаил-12рус</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 9 сек.</t>
+    <t>4 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>493</t>
@@ -4460,7 +4460,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 56 сек.</t>
+    <t>4 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>494</t>
@@ -4469,7 +4469,7 @@
     <t>Shystrui</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 32 сек.</t>
+    <t>4 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>495–496</t>
@@ -4478,7 +4478,7 @@
     <t>telephone</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 17 сек.</t>
+    <t>4 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>azyl</t>
@@ -4490,7 +4490,7 @@
     <t>Umunty</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 2 сек.</t>
+    <t>4 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>498</t>
@@ -4499,7 +4499,7 @@
     <t>Томас86</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 58 сек.</t>
+    <t>4 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>499</t>
@@ -4508,7 +4508,7 @@
     <t>yaytsepes</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 52 сек.</t>
+    <t>4 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>500</t>
@@ -4517,7 +4517,7 @@
     <t>cristini</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 30 сек.</t>
+    <t>4 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>501</t>
@@ -4526,7 +4526,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 9 сек.</t>
+    <t>4 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>502</t>
@@ -4535,7 +4535,7 @@
     <t>Ласточка-</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 41 сек.</t>
+    <t>4 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>503</t>
@@ -4580,7 +4580,7 @@
     <t>SergeK</t>
   </si>
   <si>
-    <t>3 ч. 58 мин. 7 сек.</t>
+    <t>3 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>508</t>
@@ -4598,7 +4598,7 @@
     <t>Всего_хорошего</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 8 сек.</t>
+    <t>3 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>510</t>
@@ -4661,7 +4661,7 @@
     <t>Abel1sk</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 1 сек.</t>
+    <t>3 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4760,7 +4760,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 8 сек.</t>
+    <t>3 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>528</t>
@@ -4787,7 +4787,7 @@
     <t>-IL-</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 6 сек.</t>
+    <t>3 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4805,7 +4805,7 @@
     <t>NewB</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 6 сек.</t>
+    <t>3 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>533</t>
@@ -4850,7 +4850,7 @@
     <t>Божок_Евгений</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 1 сек.</t>
+    <t>3 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>538</t>
@@ -4895,7 +4895,7 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 6 сек.</t>
+    <t>3 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>543</t>
@@ -4967,7 +4967,7 @@
     <t>ludmila1</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 8 сек.</t>
+    <t>3 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>Alex_747</t>
@@ -5015,7 +5015,7 @@
     <t>Livens</t>
   </si>
   <si>
-    <t>3 ч. 39 мин. 8 сек.</t>
+    <t>3 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>557</t>
@@ -5054,7 +5054,7 @@
     <t>ГоречьПоражения</t>
   </si>
   <si>
-    <t>3 ч. 37 мин. 4 сек.</t>
+    <t>3 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>562</t>
@@ -5147,7 +5147,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 4 сек.</t>
+    <t>3 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>573</t>
@@ -5156,7 +5156,7 @@
     <t>ydog</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 2 сек.</t>
+    <t>3 ч. 33 мин. 02 сек.</t>
   </si>
   <si>
     <t>574</t>
@@ -5192,7 +5192,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 5 сек.</t>
+    <t>3 ч. 31 мин. 05 сек.</t>
   </si>
   <si>
     <t>578</t>
@@ -5360,7 +5360,7 @@
     <t>Татуяна</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 2 сек.</t>
+    <t>3 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5441,7 +5441,7 @@
     <t>zavex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 3 сек.</t>
+    <t>3 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>607</t>
@@ -5543,7 +5543,7 @@
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 17 мин. 9 сек.</t>
+    <t>3 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5570,7 +5570,7 @@
     <t>Рюша</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>622–623</t>
@@ -5579,7 +5579,7 @@
     <t>bnesih</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 5 сек.</t>
+    <t>3 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>beznickk</t>
@@ -5591,7 +5591,7 @@
     <t>Alice_Majak</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>625</t>
@@ -5735,7 +5735,7 @@
     <t>Kraken1994</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 8 сек.</t>
+    <t>3 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>641</t>
@@ -5789,7 +5789,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>647</t>
@@ -5798,7 +5798,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 53 сек.</t>
+    <t>3 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>648</t>
@@ -5807,7 +5807,7 @@
     <t>ooojaming</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>649</t>
@@ -5816,7 +5816,7 @@
     <t>makorvi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 4 сек.</t>
+    <t>3 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>650</t>
@@ -5825,7 +5825,7 @@
     <t>marikYES</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 1 сек.</t>
+    <t>3 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>651</t>
@@ -5834,7 +5834,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -5843,7 +5843,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 2 сек.</t>
+    <t>3 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>653</t>
@@ -5852,7 +5852,7 @@
     <t>Снус</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 38 сек.</t>
+    <t>3 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>654</t>
@@ -5861,7 +5861,7 @@
     <t>Anarjell</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 57 сек.</t>
+    <t>3 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>655</t>
@@ -5870,7 +5870,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 47 сек.</t>
+    <t>3 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>656</t>
@@ -5879,7 +5879,7 @@
     <t>fill341</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 41 сек.</t>
+    <t>3 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>657</t>
@@ -5888,7 +5888,7 @@
     <t>Alston</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 37 сек.</t>
+    <t>3 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>658</t>
@@ -5897,7 +5897,7 @@
     <t>Thrust_SSC</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 22 сек.</t>
+    <t>3 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>659</t>
@@ -5906,7 +5906,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 8 сек.</t>
+    <t>3 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>660</t>
@@ -5915,7 +5915,7 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 6 сек.</t>
+    <t>3 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>661</t>
@@ -5924,7 +5924,7 @@
     <t>Аннетт</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 59 сек.</t>
+    <t>3 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>662</t>
@@ -5933,7 +5933,7 @@
     <t>vvl</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 58 сек.</t>
+    <t>3 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>663</t>
@@ -5942,7 +5942,7 @@
     <t>udezich</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>664</t>
@@ -5951,7 +5951,7 @@
     <t>000Норик000</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 16 сек.</t>
+    <t>3 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>665</t>
@@ -5960,7 +5960,7 @@
     <t>Grevozin</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 41 сек.</t>
+    <t>3 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>666</t>
@@ -5969,7 +5969,7 @@
     <t>zvonenko</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 48 сек.</t>
+    <t>3 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>667</t>
@@ -5978,7 +5978,7 @@
     <t>Элюня</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 32 сек.</t>
+    <t>3 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>668</t>
@@ -5987,7 +5987,7 @@
     <t>PavlovaLS</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 11 сек.</t>
+    <t>3 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>669</t>
@@ -5996,7 +5996,7 @@
     <t>sergiorm</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 57 сек.</t>
+    <t>3 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>670</t>
@@ -6005,7 +6005,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 40 сек.</t>
+    <t>3 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>671</t>
@@ -6014,7 +6014,7 @@
     <t>anguis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 12 сек.</t>
+    <t>3 ч. 02 мин. 12 сек.</t>
   </si>
   <si>
     <t>672</t>
@@ -6023,7 +6023,7 @@
     <t>threesev</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 4 сек.</t>
+    <t>3 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>673</t>
@@ -6032,7 +6032,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>674</t>
@@ -6041,7 +6041,7 @@
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 40 сек.</t>
+    <t>3 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>675</t>
@@ -6050,7 +6050,7 @@
     <t>Aleksius</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>676</t>
@@ -6059,7 +6059,7 @@
     <t>Albert_Sabitov</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>677</t>
@@ -6068,7 +6068,7 @@
     <t>onealoner</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 47 сек.</t>
+    <t>3 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>678</t>
@@ -6077,7 +6077,7 @@
     <t>HawlBix</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 2 сек.</t>
+    <t>3 ч. 00 мин. 02 сек.</t>
   </si>
   <si>
     <t>679</t>
@@ -6140,7 +6140,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>686</t>
@@ -6149,7 +6149,7 @@
     <t>traivens</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 7 сек.</t>
+    <t>2 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>687</t>
@@ -6221,7 +6221,7 @@
     <t>Plectrum</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 7 сек.</t>
+    <t>2 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>695</t>
@@ -6305,7 +6305,7 @@
     <t>Slenderman</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>705</t>
@@ -6314,7 +6314,7 @@
     <t>Salamondro</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 6 сек.</t>
+    <t>2 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>706</t>
@@ -6323,7 +6323,7 @@
     <t>iPitbull</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 0 сек.</t>
+    <t>2 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>707</t>
@@ -6440,7 +6440,7 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 2 сек.</t>
+    <t>2 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>720</t>
@@ -6449,7 +6449,7 @@
     <t>demonclown</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>721</t>
@@ -6503,7 +6503,7 @@
     <t>Dokee</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>727</t>
@@ -6512,7 +6512,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 2 сек.</t>
+    <t>2 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>728</t>
@@ -6569,7 +6569,7 @@
     <t>mexakis</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 3 сек.</t>
+    <t>2 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>735</t>
@@ -6632,7 +6632,7 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 2 сек.</t>
+    <t>2 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>742</t>
@@ -6641,7 +6641,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 1 сек.</t>
+    <t>2 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>743</t>
@@ -6806,7 +6806,7 @@
     <t>genie_1855</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>762</t>
@@ -6842,7 +6842,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 3 сек.</t>
+    <t>2 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>766</t>
@@ -6851,7 +6851,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 0 сек.</t>
+    <t>2 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>767</t>
@@ -6908,7 +6908,7 @@
     <t>mhkoroboff</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 6 сек.</t>
+    <t>2 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>774</t>
@@ -6935,7 +6935,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>777</t>
@@ -7127,7 +7127,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>799</t>
@@ -7178,7 +7178,7 @@
     <t>Chat-Fighter</t>
   </si>
   <si>
-    <t>2 ч. 34 мин. 8 сек.</t>
+    <t>2 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>805</t>
@@ -7214,7 +7214,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 9 сек.</t>
+    <t>2 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>809</t>
@@ -7223,7 +7223,7 @@
     <t>thefastest</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 5 сек.</t>
+    <t>2 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>810</t>
@@ -7232,7 +7232,7 @@
     <t>Аналбум21378</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>811</t>
@@ -7280,7 +7280,7 @@
     <t>klavobit</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 2 сек.</t>
+    <t>2 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>817</t>
@@ -7361,7 +7361,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 7 сек.</t>
+    <t>2 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>826</t>
@@ -7454,7 +7454,7 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 6 сек.</t>
+    <t>2 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>837</t>
@@ -7463,7 +7463,7 @@
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 5 сек.</t>
+    <t>2 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>838</t>
@@ -7607,7 +7607,7 @@
     <t>s1mple-d1mple</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 0 сек.</t>
+    <t>2 ч. 25 мин. 00 сек.</t>
   </si>
   <si>
     <t>aleks2ud</t>
@@ -7673,7 +7673,7 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7835,7 +7835,7 @@
     <t>ShadenII</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 4 сек.</t>
+    <t>2 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>882</t>
@@ -7871,7 +7871,7 @@
     <t>ele_ele</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 8 сек.</t>
+    <t>2 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>886</t>
@@ -7919,7 +7919,7 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 4 сек.</t>
+    <t>2 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>892</t>
@@ -7994,7 +7994,7 @@
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>901</t>
@@ -8060,7 +8060,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 7 сек.</t>
+    <t>2 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>909</t>
@@ -8069,7 +8069,7 @@
     <t>_NoMaD_</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 1 сек.</t>
+    <t>2 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>910</t>
@@ -8123,7 +8123,7 @@
     <t>gromanspb</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 8 сек.</t>
+    <t>2 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>916</t>
@@ -8132,7 +8132,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 4 сек.</t>
+    <t>2 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>917</t>
@@ -8177,7 +8177,7 @@
     <t>frailleg</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>alenka</t>
@@ -8291,7 +8291,7 @@
     <t>Adlerrr1974</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>936–937</t>
@@ -8300,7 +8300,7 @@
     <t>super_typing</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>KleiAseS</t>
@@ -8312,7 +8312,7 @@
     <t>Julieta-nv</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>939</t>
@@ -8321,7 +8321,7 @@
     <t>mesenev</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>940</t>
@@ -8330,7 +8330,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 24 сек.</t>
+    <t>2 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>941</t>
@@ -8339,7 +8339,7 @@
     <t>cucu</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 3 сек.</t>
+    <t>2 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>942</t>
@@ -8348,7 +8348,7 @@
     <t>M-A-K-S</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 1 сек.</t>
+    <t>2 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>943</t>
@@ -8357,7 +8357,7 @@
     <t>mibig</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 57 сек.</t>
+    <t>2 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>944</t>
@@ -8366,7 +8366,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>945</t>
@@ -8375,7 +8375,7 @@
     <t>-creed-</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 24 сек.</t>
+    <t>2 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>946</t>
@@ -8384,7 +8384,7 @@
     <t>Arachne</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 16 сек.</t>
+    <t>2 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>947</t>
@@ -8393,7 +8393,7 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>948</t>
@@ -8402,7 +8402,7 @@
     <t>Rb7</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>949</t>
@@ -8411,7 +8411,7 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 46 сек.</t>
+    <t>2 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>950</t>
@@ -8420,7 +8420,7 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>951</t>
@@ -8429,7 +8429,7 @@
     <t>Эльфинит</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>952</t>
@@ -8438,7 +8438,7 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>953</t>
@@ -8447,7 +8447,7 @@
     <t>Tigror</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 15 сек.</t>
+    <t>2 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>954</t>
@@ -8456,7 +8456,7 @@
     <t>feuerstein</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>955</t>
@@ -8465,7 +8465,7 @@
     <t>Маквинчик</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 40 сек.</t>
+    <t>2 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>956</t>
@@ -8474,7 +8474,7 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 34 сек.</t>
+    <t>2 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>957</t>
@@ -8483,7 +8483,7 @@
     <t>e2e4</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 33 сек.</t>
+    <t>2 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>958</t>
@@ -8492,7 +8492,7 @@
     <t>GrandSwuirrel</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 32 сек.</t>
+    <t>2 ч. 06 мин. 32 сек.</t>
   </si>
   <si>
     <t>959</t>
@@ -8501,7 +8501,7 @@
     <t>iPod_touch</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 7 сек.</t>
+    <t>2 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>960–961</t>
@@ -8510,7 +8510,7 @@
     <t>flyms</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 4 сек.</t>
+    <t>2 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>Братишка</t>
@@ -8522,7 +8522,7 @@
     <t>jfk</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 1 сек.</t>
+    <t>2 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>963</t>
@@ -8531,7 +8531,7 @@
     <t>Мазок</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 55 сек.</t>
+    <t>2 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>964</t>
@@ -8540,7 +8540,7 @@
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>965</t>
@@ -8549,7 +8549,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 14 сек.</t>
+    <t>2 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>966</t>
@@ -8558,7 +8558,7 @@
     <t>Sunrise13</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 1 сек.</t>
+    <t>2 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>967</t>
@@ -8567,7 +8567,7 @@
     <t>dimasi</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 56 сек.</t>
+    <t>2 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>968</t>
@@ -8576,7 +8576,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 34 сек.</t>
+    <t>2 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>969–970</t>
@@ -8585,7 +8585,7 @@
     <t>Leshka_m</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>Squirr</t>
@@ -8597,7 +8597,7 @@
     <t>PROcent</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 8 сек.</t>
+    <t>2 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>972</t>
@@ -8606,7 +8606,7 @@
     <t>Levscha86</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 34 сек.</t>
+    <t>2 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>973</t>
@@ -8615,7 +8615,7 @@
     <t>system_error</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>974</t>
@@ -8624,7 +8624,7 @@
     <t>NePhiLiM</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>975</t>
@@ -8633,7 +8633,7 @@
     <t>Aiphos</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 15 сек.</t>
+    <t>2 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>976</t>
@@ -8642,7 +8642,7 @@
     <t>NIKKOV</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 5 сек.</t>
+    <t>2 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>977</t>
@@ -8651,7 +8651,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 59 сек.</t>
+    <t>2 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>978</t>
@@ -8660,7 +8660,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 50 сек.</t>
+    <t>2 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>979</t>
@@ -8669,7 +8669,7 @@
     <t>kotartur</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>980</t>
@@ -8678,7 +8678,7 @@
     <t>ErgoFrog</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 41 сек.</t>
+    <t>2 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>981</t>
@@ -8687,7 +8687,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 32 сек.</t>
+    <t>2 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>982</t>
@@ -8696,7 +8696,7 @@
     <t>Dude2</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 28 сек.</t>
+    <t>2 ч. 02 мин. 28 сек.</t>
   </si>
   <si>
     <t>983</t>
@@ -8705,7 +8705,7 @@
     <t>ritochka27</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 27 сек.</t>
+    <t>2 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>984</t>
@@ -8714,7 +8714,7 @@
     <t>Batbara</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 1 сек.</t>
+    <t>2 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>985</t>
@@ -8723,7 +8723,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 58 сек.</t>
+    <t>2 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>986</t>
@@ -8732,7 +8732,7 @@
     <t>Wolf4</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 16 сек.</t>
+    <t>2 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>987</t>
@@ -8741,7 +8741,7 @@
     <t>tom280586</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 8 сек.</t>
+    <t>2 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>988</t>
@@ -8750,7 +8750,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 4 сек.</t>
+    <t>2 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>989</t>
@@ -8759,7 +8759,7 @@
     <t>rashsik</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 54 сек.</t>
+    <t>2 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>990</t>
@@ -8768,7 +8768,7 @@
     <t>Daene</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 28 сек.</t>
+    <t>2 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>991</t>
@@ -8777,7 +8777,7 @@
     <t>meganoob</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>992</t>
@@ -8786,7 +8786,7 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 6 сек.</t>
+    <t>2 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>993</t>
@@ -8993,7 +8993,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 2 сек.</t>
+    <t>1 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>1018</t>
@@ -9002,7 +9002,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 0 сек.</t>
+    <t>1 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>1019</t>
@@ -9041,7 +9041,7 @@
     <t>Маркизик</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 1 сек.</t>
+    <t>1 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>1024</t>
@@ -9161,7 +9161,7 @@
     <t>XNeon</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>1038–1039</t>
@@ -9200,7 +9200,7 @@
     <t>Slugwurm_Minsk</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>Noob777</t>
@@ -9248,7 +9248,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 5 сек.</t>
+    <t>1 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>1049</t>
@@ -9257,7 +9257,7 @@
     <t>vshevtsov</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>1050</t>
@@ -9266,7 +9266,7 @@
     <t>sergeiss_nn</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 0 сек.</t>
+    <t>1 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>1051</t>
@@ -9311,7 +9311,7 @@
     <t>ilya_138</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>1056</t>
@@ -9320,7 +9320,7 @@
     <t>Vladimir72</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 8 сек.</t>
+    <t>1 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>1057</t>
@@ -9446,7 +9446,7 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 2 сек.</t>
+    <t>1 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>1071</t>
@@ -9455,7 +9455,7 @@
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 1 сек.</t>
+    <t>1 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>1072</t>
@@ -9647,7 +9647,7 @@
     <t>Canna</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>1094</t>
@@ -9656,7 +9656,7 @@
     <t>Nigrodeus</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 6 сек.</t>
+    <t>1 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>1095</t>
@@ -9836,7 +9836,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 0 сек.</t>
+    <t>1 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>1115</t>
@@ -9935,7 +9935,7 @@
     <t>Debugger</t>
   </si>
   <si>
-    <t>1 ч. 44 мин. 9 сек.</t>
+    <t>1 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>1126</t>
@@ -9962,7 +9962,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 7 сек.</t>
+    <t>1 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>1129</t>
@@ -10061,7 +10061,7 @@
     <t>Phoen9ix</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 0 сек.</t>
+    <t>1 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>1140</t>
@@ -10145,7 +10145,7 @@
     <t>seregagrig</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 9 сек.</t>
+    <t>1 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>1150</t>
@@ -10220,7 +10220,7 @@
     <t>Kansee</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 5 сек.</t>
+    <t>1 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>1159</t>
@@ -10229,7 +10229,7 @@
     <t>Nondv</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 4 сек.</t>
+    <t>1 ч. 40 мин. 04 сек.</t>
   </si>
   <si>
     <t>1160</t>
@@ -10238,7 +10238,7 @@
     <t>gigimus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 3 сек.</t>
+    <t>1 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>1161</t>
@@ -10463,7 +10463,7 @@
     <t>ПовелительКотят</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 4 сек.</t>
+    <t>1 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>1188</t>
@@ -10472,7 +10472,7 @@
     <t>miran</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 0 сек.</t>
+    <t>1 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>1189</t>
@@ -10553,7 +10553,7 @@
     <t>vikinka</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 8 сек.</t>
+    <t>1 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>1198</t>
@@ -10562,7 +10562,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 2 сек.</t>
+    <t>1 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>1199</t>
@@ -10709,7 +10709,7 @@
     <t>Amateur_</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 4 сек.</t>
+    <t>1 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>1216–1217</t>
@@ -10784,7 +10784,7 @@
     <t>sovofeel</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 6 сек.</t>
+    <t>1 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>1225</t>
@@ -10901,7 +10901,7 @@
     <t>La_Nr</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>1238</t>
@@ -10982,7 +10982,7 @@
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>1247</t>
@@ -10991,7 +10991,7 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 1 сек.</t>
+    <t>1 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>1248</t>
@@ -11048,7 +11048,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 5 сек.</t>
+    <t>1 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>1255</t>
@@ -11057,7 +11057,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>1256</t>
@@ -11066,7 +11066,7 @@
     <t>BAHO_Sh</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 1 сек.</t>
+    <t>1 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>1257</t>
@@ -11093,7 +11093,7 @@
     <t>УчусьБезОшибок</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 4 сек.</t>
+    <t>1 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>1260–1261</t>
@@ -11102,7 +11102,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 3 сек.</t>
+    <t>1 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>agazadetofik</t>
@@ -11114,7 +11114,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 2 сек.</t>
+    <t>1 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>1263–1264</t>
@@ -11123,7 +11123,7 @@
     <t>yoursweetshadow</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 1 сек.</t>
+    <t>1 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Reset82</t>
@@ -11153,7 +11153,7 @@
     <t>Revangleb</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>1268</t>
@@ -11162,7 +11162,7 @@
     <t>Raxma</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>1269–1270</t>
@@ -11258,7 +11258,7 @@
     <t>I-van</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 3 сек.</t>
+    <t>1 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>1281</t>
@@ -11312,7 +11312,7 @@
     <t>Keysman</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 9 сек.</t>
+    <t>1 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>1287</t>
@@ -11393,7 +11393,7 @@
     <t>tkozak</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 4 сек.</t>
+    <t>1 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>1296</t>
@@ -11402,7 +11402,7 @@
     <t>Saiche</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>1297</t>
@@ -11537,7 +11537,7 @@
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 4 сек.</t>
+    <t>1 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>1312</t>
@@ -11546,7 +11546,7 @@
     <t>morgan_hot</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>1313</t>
@@ -11654,7 +11654,7 @@
     <t>Narwhale</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 8 сек.</t>
+    <t>1 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>1325</t>
@@ -11663,7 +11663,7 @@
     <t>NigVan</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>1326</t>
@@ -11738,7 +11738,7 @@
     <t>СветлаяВечность</t>
   </si>
   <si>
-    <t>1 ч. 17 мин. 4 сек.</t>
+    <t>1 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>Galoperidol</t>
@@ -11840,7 +11840,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>1347</t>
@@ -11912,7 +11912,7 @@
     <t>L_E_O</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>1355</t>
@@ -12011,7 +12011,7 @@
     <t>Vespertilio</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>1366</t>
@@ -12020,7 +12020,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 2 сек.</t>
+    <t>1 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>1367</t>
@@ -12029,7 +12029,7 @@
     <t>Dark_Ruby</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 48 сек.</t>
+    <t>1 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>1368</t>
@@ -12038,7 +12038,7 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 20 сек.</t>
+    <t>1 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>1369</t>
@@ -12047,7 +12047,7 @@
     <t>Кецба</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 9 сек.</t>
+    <t>1 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>1370</t>
@@ -12056,7 +12056,7 @@
     <t>Artursrst</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>1371</t>
@@ -12065,7 +12065,7 @@
     <t>Ksano</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>1372</t>
@@ -12074,7 +12074,7 @@
     <t>Евромайдан</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 32 сек.</t>
+    <t>1 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>1373</t>
@@ -12083,13 +12083,13 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 19 сек.</t>
+    <t>1 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>1374</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 18 сек.</t>
+    <t>1 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>1375</t>
@@ -12098,7 +12098,7 @@
     <t>molto_bella</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 4 сек.</t>
+    <t>1 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>1376–1377</t>
@@ -12107,7 +12107,7 @@
     <t>Katinchen</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>serge-kruf</t>
@@ -12119,7 +12119,7 @@
     <t>Umme</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 31 сек.</t>
+    <t>1 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>1379</t>
@@ -12128,7 +12128,7 @@
     <t>timikus</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 14 сек.</t>
+    <t>1 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>1380</t>
@@ -12137,7 +12137,7 @@
     <t>Exolon</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 7 сек.</t>
+    <t>1 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>1381</t>
@@ -12146,7 +12146,7 @@
     <t>Apox</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 48 сек.</t>
+    <t>1 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>1382</t>
@@ -12155,7 +12155,7 @@
     <t>Kravis</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 37 сек.</t>
+    <t>1 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>1383</t>
@@ -12164,7 +12164,7 @@
     <t>Cavaliers23</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 36 сек.</t>
+    <t>1 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>1384</t>
@@ -12173,7 +12173,7 @@
     <t>Koth</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 16 сек.</t>
+    <t>1 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>1385</t>
@@ -12182,7 +12182,7 @@
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 15 сек.</t>
+    <t>1 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>1386</t>
@@ -12191,7 +12191,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 10 сек.</t>
+    <t>1 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>1387</t>
@@ -12200,7 +12200,7 @@
     <t>Smartzero</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>1388</t>
@@ -12209,7 +12209,7 @@
     <t>MarineLandscape</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 58 сек.</t>
+    <t>1 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>1389</t>
@@ -12218,7 +12218,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 41 сек.</t>
+    <t>1 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>1390</t>
@@ -12227,7 +12227,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 33 сек.</t>
+    <t>1 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>1391</t>
@@ -12236,7 +12236,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 6 сек.</t>
+    <t>1 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>1392</t>
@@ -12245,7 +12245,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 2 сек.</t>
+    <t>1 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>1393</t>
@@ -12254,7 +12254,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 42 сек.</t>
+    <t>1 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>1394</t>
@@ -12263,7 +12263,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 15 сек.</t>
+    <t>1 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>1395</t>
@@ -12272,7 +12272,7 @@
     <t>Lifeisgood3k</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>1396</t>
@@ -12281,7 +12281,7 @@
     <t>Гимли</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>1397</t>
@@ -12290,7 +12290,7 @@
     <t>Makis</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 16 сек.</t>
+    <t>1 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>1398</t>
@@ -12299,7 +12299,7 @@
     <t>Catsvill</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>1399</t>
@@ -12308,7 +12308,7 @@
     <t>TDV</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>1400</t>
@@ -12317,7 +12317,7 @@
     <t>h0ly-n1</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>1401</t>
@@ -12326,7 +12326,7 @@
     <t>_Mira_</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 42 сек.</t>
+    <t>1 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>1402</t>
@@ -12335,7 +12335,7 @@
     <t>ramon105</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>1403</t>
@@ -12344,7 +12344,7 @@
     <t>Kemban</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 13 сек.</t>
+    <t>1 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>1404</t>
@@ -12353,7 +12353,7 @@
     <t>s_a_k_u_r_a</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>1405</t>
@@ -12362,7 +12362,7 @@
     <t>Riki234</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 4 сек.</t>
+    <t>1 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>1406</t>
@@ -12371,7 +12371,7 @@
     <t>Wind_Of_Change</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 57 сек.</t>
+    <t>1 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>1407</t>
@@ -12380,7 +12380,7 @@
     <t>TuaDop</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 52 сек.</t>
+    <t>1 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>1408</t>
@@ -12389,7 +12389,7 @@
     <t>_onix</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 35 сек.</t>
+    <t>1 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>1409</t>
@@ -12398,7 +12398,7 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 34 сек.</t>
+    <t>1 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>1410</t>
@@ -12407,7 +12407,7 @@
     <t>al0ne</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 30 сек.</t>
+    <t>1 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>1411</t>
@@ -12416,7 +12416,7 @@
     <t>Похудистка</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 5 сек.</t>
+    <t>1 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>1412</t>
@@ -12443,7 +12443,7 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 4 сек.</t>
+    <t>0 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>1415</t>
